--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.08</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6919</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2407,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,17 +2419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2438,14 +2459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.32</v>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2454,14 +2497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.08</v>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2470,14 +2535,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.31</v>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2486,14 +2573,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2502,13 +2611,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>博时成长优势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.7227</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,568 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>012367</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.6122</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +1273,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +1303,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.61</t>
+          <t>62.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>73.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6354</t>
+          <t>2.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -809,36 +1341,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010742</t>
+          <t>012366</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方宁悦一年持有期混合A</t>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.30</t>
+          <t>41.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5180</t>
+          <t>1.1985</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +1379,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>博时成长优势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.46</t>
+          <t>75.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4609</t>
+          <t>0.7397</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -885,32 +1417,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>012367</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.46</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2448</t>
+          <t>0.6919</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -923,36 +1455,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012218</t>
+          <t>011033</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时乐享混合型证券投资基金A</t>
+          <t>南方宝恒混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>47.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1880</t>
+          <t>0.4100</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -961,36 +1493,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007415</t>
+          <t>004823</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方致远混合A</t>
+          <t>上投摩根安裕回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.32</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.3906</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -999,36 +1531,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>011740</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>博时成长精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>75.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.3184</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1037,36 +1569,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010743</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方宁悦一年持有期混合C</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.3078</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1075,36 +1607,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>73.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.2699</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1113,36 +1645,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007416</t>
+          <t>004824</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方致远混合C</t>
+          <t>上投摩根安裕回报混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.2581</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1151,36 +1683,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>010742</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>南方宁悦一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>21.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1189,35 +1721,263 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012219</t>
+          <t>011034</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时乐享混合型证券投资基金C</t>
+          <t>南方宝恒混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.1903</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1668,7 +2428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +2449,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1719,36 +2479,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.64</t>
+          <t>19.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1110</t>
+          <t>0.6354</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1757,36 +2517,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012366</t>
+          <t>010742</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
+          <t>南方宁悦一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.47</t>
+          <t>56.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1985</t>
+          <t>0.5180</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1795,36 +2555,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012463</t>
+          <t>004823</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金A</t>
+          <t>上投摩根安裕回报混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.80</t>
+          <t>23.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7397</t>
+          <t>0.4609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1833,32 +2593,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012367</t>
+          <t>004824</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
+          <t>上投摩根安裕回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>23.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6919</t>
+          <t>0.2448</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1871,36 +2631,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011033</t>
+          <t>012218</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方宝恒混合型证券投资基金A</t>
+          <t>博时乐享混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47.68</t>
+          <t>16.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>26.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4100</t>
+          <t>0.1880</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1909,36 +2669,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>007415</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>南方致远混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3906</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1947,36 +2707,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011740</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时成长精选混合A</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3184</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1985,36 +2745,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>010743</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>南方宁悦一年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3078</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2023,36 +2783,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2699</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2061,36 +2821,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>007416</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>南方致远混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2581</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2099,36 +2859,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010742</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方宁悦一年持有期混合A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2137,263 +2897,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011034</t>
+          <t>012219</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方宝恒混合型证券投资基金C</t>
+          <t>博时乐享混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>26.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1903</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011741</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>75.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012464</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时成长优势混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>75.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010743</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.79</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2408,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2429,7 +2961,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2459,36 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012463</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7227</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2497,568 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012367</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6122</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012366</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4878</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011033</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方宝恒混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>37.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2974</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011740</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2528</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004824</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根安裕回报混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2517</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010742</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1971</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012218</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时乐享混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1482</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011034</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方宝恒混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>24.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1471</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004823</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根安裕回报混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1415</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011741</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012464</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时成长优势混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010743</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.71</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>012219</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时乐享混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3072,128 +3072,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.7</v>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>7.32</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1246,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1986,7 +2363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2422,7 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2934,7 +3311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3066,7 +3443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01816-中广核电力.xlsx
+++ b/数据整理/stocks/港股/01816-中广核电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>7.32</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.08</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1623,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3311,7 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3443,7 +3972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
